--- a/data/pca/factorExposure/factorExposure_2010-01-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-01-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.003510366356981555</v>
+        <v>0.01710963632619126</v>
       </c>
       <c r="C2">
-        <v>0.01654124857341941</v>
+        <v>0.001202346474979527</v>
       </c>
       <c r="D2">
-        <v>0.0003615339487302038</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.005605730186892382</v>
+      </c>
+      <c r="E2">
+        <v>-0.0005560250149639878</v>
+      </c>
+      <c r="F2">
+        <v>-0.01090705471129177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.02635223105556324</v>
+        <v>0.09463176771204798</v>
       </c>
       <c r="C4">
-        <v>0.1256206802536224</v>
+        <v>0.01588856016301783</v>
       </c>
       <c r="D4">
-        <v>0.02442805729097427</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08238183140553897</v>
+      </c>
+      <c r="E4">
+        <v>0.02888558315379115</v>
+      </c>
+      <c r="F4">
+        <v>0.03030881477770111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.03485077187452858</v>
+        <v>0.1571848344474697</v>
       </c>
       <c r="C6">
-        <v>0.1101574092646244</v>
+        <v>0.02537819156479756</v>
       </c>
       <c r="D6">
-        <v>-0.03409624336535041</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02355976543958468</v>
+      </c>
+      <c r="E6">
+        <v>0.009346849218105307</v>
+      </c>
+      <c r="F6">
+        <v>0.04723519443509043</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.008040310135343029</v>
+        <v>0.06059456025277052</v>
       </c>
       <c r="C7">
-        <v>0.07213359454454514</v>
+        <v>-0.0009411322306334831</v>
       </c>
       <c r="D7">
-        <v>0.01744144582474738</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05258345183721899</v>
+      </c>
+      <c r="E7">
+        <v>0.01091774555254255</v>
+      </c>
+      <c r="F7">
+        <v>0.04354149476707009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.003392283204864521</v>
+        <v>0.05836480196839466</v>
       </c>
       <c r="C8">
-        <v>0.06156448787647316</v>
+        <v>-0.01327721414482944</v>
       </c>
       <c r="D8">
-        <v>-0.01174968652898574</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03191318059564064</v>
+      </c>
+      <c r="E8">
+        <v>0.01712288234850975</v>
+      </c>
+      <c r="F8">
+        <v>-0.02777243491043496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.02270862007028967</v>
+        <v>0.07227804783658429</v>
       </c>
       <c r="C9">
-        <v>0.1013867734279984</v>
+        <v>0.01167679063256044</v>
       </c>
       <c r="D9">
-        <v>0.03353616845978766</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08422778781545803</v>
+      </c>
+      <c r="E9">
+        <v>0.02356154716175403</v>
+      </c>
+      <c r="F9">
+        <v>0.04650686145917854</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.008219972968157014</v>
+        <v>0.09272094137906334</v>
       </c>
       <c r="C10">
-        <v>0.02151863306850794</v>
+        <v>0.01923211495149725</v>
       </c>
       <c r="D10">
-        <v>-0.1942962068385684</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1706525584893017</v>
+      </c>
+      <c r="E10">
+        <v>-0.03767994738364838</v>
+      </c>
+      <c r="F10">
+        <v>-0.0556722205275631</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.0260046905607936</v>
+        <v>0.0880445144853097</v>
       </c>
       <c r="C11">
-        <v>0.1092103030606398</v>
+        <v>0.01132412141643944</v>
       </c>
       <c r="D11">
-        <v>0.06784732381964612</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1157263814429853</v>
+      </c>
+      <c r="E11">
+        <v>0.04715414323984488</v>
+      </c>
+      <c r="F11">
+        <v>0.01962984806748886</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.02325270702040883</v>
+        <v>0.09300706700035707</v>
       </c>
       <c r="C12">
-        <v>0.1188722512935758</v>
+        <v>0.008470038054309613</v>
       </c>
       <c r="D12">
-        <v>0.0623274948183671</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1294780241906048</v>
+      </c>
+      <c r="E12">
+        <v>0.0472925289977516</v>
+      </c>
+      <c r="F12">
+        <v>0.02417601705816394</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.007100519090093443</v>
+        <v>0.04308225585950311</v>
       </c>
       <c r="C13">
-        <v>0.03735630281369992</v>
+        <v>0.003749516220571596</v>
       </c>
       <c r="D13">
-        <v>0.01706558904839845</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04928611456408535</v>
+      </c>
+      <c r="E13">
+        <v>-0.01027341322465727</v>
+      </c>
+      <c r="F13">
+        <v>0.002234717602145596</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01537265314916858</v>
+        <v>0.02283376337572552</v>
       </c>
       <c r="C14">
-        <v>0.0253116716037402</v>
+        <v>0.01404613293757908</v>
       </c>
       <c r="D14">
-        <v>0.005330320629363626</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03380260053031527</v>
+      </c>
+      <c r="E14">
+        <v>0.01752585716724697</v>
+      </c>
+      <c r="F14">
+        <v>0.01390799609983057</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01006601678424952</v>
+        <v>0.03153555717882615</v>
       </c>
       <c r="C15">
-        <v>0.02856022981984415</v>
+        <v>0.005128869881781626</v>
       </c>
       <c r="D15">
-        <v>0.02446645022464165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04501974359587082</v>
+      </c>
+      <c r="E15">
+        <v>0.006750446775501727</v>
+      </c>
+      <c r="F15">
+        <v>0.02165291417940879</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.01544969825104509</v>
+        <v>0.07339943434146284</v>
       </c>
       <c r="C16">
-        <v>0.1139266022334805</v>
+        <v>0.002227652999648899</v>
       </c>
       <c r="D16">
-        <v>0.0454157279178555</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1258688411228489</v>
+      </c>
+      <c r="E16">
+        <v>0.06210946723285078</v>
+      </c>
+      <c r="F16">
+        <v>0.02236023549374917</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.02784207154816058</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003657319874113564</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.02194348946912927</v>
+      </c>
+      <c r="E18">
+        <v>-0.005896175592368188</v>
+      </c>
+      <c r="F18">
+        <v>-0.006949719746320078</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.009999139475168421</v>
+        <v>0.06084585989394631</v>
       </c>
       <c r="C20">
-        <v>0.06928432328660301</v>
+        <v>0.0006419010120840733</v>
       </c>
       <c r="D20">
-        <v>0.03290734097012715</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07681444233917251</v>
+      </c>
+      <c r="E20">
+        <v>0.05618556486345268</v>
+      </c>
+      <c r="F20">
+        <v>0.02138566080693021</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.01123812407028615</v>
+        <v>0.03944248564105045</v>
       </c>
       <c r="C21">
-        <v>0.01835597122530337</v>
+        <v>0.006450276585651573</v>
       </c>
       <c r="D21">
-        <v>0.003131926688572507</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.0371801664541318</v>
+      </c>
+      <c r="E21">
+        <v>-0.005643929776311033</v>
+      </c>
+      <c r="F21">
+        <v>-0.02653994266289831</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.003523415166356517</v>
+        <v>0.04405481229664381</v>
       </c>
       <c r="C22">
-        <v>0.02750594873965833</v>
+        <v>0.0009436747586256922</v>
       </c>
       <c r="D22">
-        <v>-0.03745999507903322</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.001494498875325225</v>
+      </c>
+      <c r="E22">
+        <v>0.0278897605331022</v>
+      </c>
+      <c r="F22">
+        <v>-0.03097278642500853</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.003512721163330744</v>
+        <v>0.04403982026031995</v>
       </c>
       <c r="C23">
-        <v>0.02743585944295786</v>
+        <v>0.0009393421974017511</v>
       </c>
       <c r="D23">
-        <v>-0.03739308157815874</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.001499785568511188</v>
+      </c>
+      <c r="E23">
+        <v>0.02809185600213714</v>
+      </c>
+      <c r="F23">
+        <v>-0.03093815541274051</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.01545577603195827</v>
+        <v>0.08008896687531242</v>
       </c>
       <c r="C24">
-        <v>0.1148526245643745</v>
+        <v>0.002953818437872615</v>
       </c>
       <c r="D24">
-        <v>0.0505558090812709</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1195980562876957</v>
+      </c>
+      <c r="E24">
+        <v>0.0503433680970195</v>
+      </c>
+      <c r="F24">
+        <v>0.02342558049259085</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.02085754335874998</v>
+        <v>0.08513767401144176</v>
       </c>
       <c r="C25">
-        <v>0.1198906963430848</v>
+        <v>0.005153808524080815</v>
       </c>
       <c r="D25">
-        <v>0.05338389615896686</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.10848396177827</v>
+      </c>
+      <c r="E25">
+        <v>0.03329402568625172</v>
+      </c>
+      <c r="F25">
+        <v>0.02480943978630645</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.02160604452236255</v>
+        <v>0.05725255451597609</v>
       </c>
       <c r="C26">
-        <v>0.05010971764952513</v>
+        <v>0.0146082190820881</v>
       </c>
       <c r="D26">
-        <v>-0.01386193951604632</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.0413680042794768</v>
+      </c>
+      <c r="E26">
+        <v>0.02810549391492511</v>
+      </c>
+      <c r="F26">
+        <v>-0.01133932650423611</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.001967209959496161</v>
+        <v>0.1402959061403456</v>
       </c>
       <c r="C28">
-        <v>0.01768310221648739</v>
+        <v>0.01873427926738299</v>
       </c>
       <c r="D28">
-        <v>-0.2750853407289852</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2645125769926627</v>
+      </c>
+      <c r="E28">
+        <v>-0.0685243357084739</v>
+      </c>
+      <c r="F28">
+        <v>0.008483813091775773</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01219009017387995</v>
+        <v>0.02728607983601672</v>
       </c>
       <c r="C29">
-        <v>0.03190137059745991</v>
+        <v>0.008235685180529518</v>
       </c>
       <c r="D29">
-        <v>-0.005243933598643115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03295389589178616</v>
+      </c>
+      <c r="E29">
+        <v>0.01145280707556833</v>
+      </c>
+      <c r="F29">
+        <v>-0.01089042024115656</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.01391703456712046</v>
+        <v>0.06258030622496244</v>
       </c>
       <c r="C30">
-        <v>0.1288165306719184</v>
+        <v>0.004357070155247955</v>
       </c>
       <c r="D30">
-        <v>0.03454223848932789</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08699436493322799</v>
+      </c>
+      <c r="E30">
+        <v>0.0212029013903875</v>
+      </c>
+      <c r="F30">
+        <v>0.08154209102748543</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.0213888304294157</v>
+        <v>0.04951079945538676</v>
       </c>
       <c r="C31">
-        <v>0.03686392453931862</v>
+        <v>0.01529293360365875</v>
       </c>
       <c r="D31">
-        <v>0.0127045349618834</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02491329539813045</v>
+      </c>
+      <c r="E31">
+        <v>0.02738705593367128</v>
+      </c>
+      <c r="F31">
+        <v>-0.002710916901914986</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.005979563283720666</v>
+        <v>0.04923551232892959</v>
       </c>
       <c r="C32">
-        <v>0.06009638076488556</v>
+        <v>-0.001178209140331662</v>
       </c>
       <c r="D32">
-        <v>-0.007093187616651242</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03640824777968548</v>
+      </c>
+      <c r="E32">
+        <v>0.03123920789112065</v>
+      </c>
+      <c r="F32">
+        <v>-5.307709311436197e-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02091752186605343</v>
+        <v>0.09044284068871911</v>
       </c>
       <c r="C33">
-        <v>0.1197984883170081</v>
+        <v>0.00836249556591075</v>
       </c>
       <c r="D33">
-        <v>0.04078553906582116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.09854618232859433</v>
+      </c>
+      <c r="E33">
+        <v>0.04547548683644128</v>
+      </c>
+      <c r="F33">
+        <v>0.03428552895917059</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.02333828556712964</v>
+        <v>0.06825610302869417</v>
       </c>
       <c r="C34">
-        <v>0.1015252684414064</v>
+        <v>0.01153276075514202</v>
       </c>
       <c r="D34">
-        <v>0.03723292155519788</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.10572059785944</v>
+      </c>
+      <c r="E34">
+        <v>0.03510053143243378</v>
+      </c>
+      <c r="F34">
+        <v>0.03194855964905985</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.002842994030756603</v>
+        <v>0.02366089286728356</v>
       </c>
       <c r="C35">
-        <v>0.01249063546962302</v>
+        <v>0.00240615627619672</v>
       </c>
       <c r="D35">
-        <v>0.009508229583887497</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01225011304730035</v>
+      </c>
+      <c r="E35">
+        <v>0.0115883016380504</v>
+      </c>
+      <c r="F35">
+        <v>0.001194318402699076</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.009863740319342276</v>
+        <v>0.02596525572941318</v>
       </c>
       <c r="C36">
-        <v>0.03017462893069751</v>
+        <v>0.007055800539495405</v>
       </c>
       <c r="D36">
-        <v>0.01482313814858901</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.04037901371212244</v>
+      </c>
+      <c r="E36">
+        <v>0.01618552555676587</v>
+      </c>
+      <c r="F36">
+        <v>0.01484173854971982</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-3.519528898396578e-05</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-1.419948250988004e-05</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-8.002923915127694e-05</v>
+      </c>
+      <c r="E37">
+        <v>1.629998681531251e-05</v>
+      </c>
+      <c r="F37">
+        <v>0.0003684670977529706</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0005472257102238763</v>
+        <v>0.001348694604368012</v>
       </c>
       <c r="C38">
-        <v>0.004597946559515531</v>
+        <v>0.0002054112839530952</v>
       </c>
       <c r="D38">
-        <v>-0.001682159825440836</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0006442406134160355</v>
+      </c>
+      <c r="E38">
+        <v>0.000935392639591641</v>
+      </c>
+      <c r="F38">
+        <v>-0.000470980923505691</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.03698667379108313</v>
+        <v>0.1074989116615082</v>
       </c>
       <c r="C39">
-        <v>0.1764104907416028</v>
+        <v>0.01681419842118737</v>
       </c>
       <c r="D39">
-        <v>0.08419079377089775</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1522857368700287</v>
+      </c>
+      <c r="E39">
+        <v>0.05952260698102917</v>
+      </c>
+      <c r="F39">
+        <v>0.02737743081945551</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.009302988974739608</v>
+        <v>0.03982683970572004</v>
       </c>
       <c r="C40">
-        <v>0.01069377235347709</v>
+        <v>0.007227020660327831</v>
       </c>
       <c r="D40">
-        <v>-0.01756055583160241</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03268996013322979</v>
+      </c>
+      <c r="E40">
+        <v>0.003250019948537267</v>
+      </c>
+      <c r="F40">
+        <v>-0.01679730737255388</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01114208141728665</v>
+        <v>0.02641749785251655</v>
       </c>
       <c r="C41">
-        <v>0.02242177679533762</v>
+        <v>0.006576702092709203</v>
       </c>
       <c r="D41">
-        <v>-0.009975480430669283</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01133699406792542</v>
+      </c>
+      <c r="E41">
+        <v>0.01246434332933404</v>
+      </c>
+      <c r="F41">
+        <v>-0.007110996451953054</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01153079352402995</v>
+        <v>0.03985394143141617</v>
       </c>
       <c r="C43">
-        <v>0.02470376102125083</v>
+        <v>0.006798499327299896</v>
       </c>
       <c r="D43">
-        <v>-0.0069027410533166</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02095462778034624</v>
+      </c>
+      <c r="E43">
+        <v>0.0251195560209069</v>
+      </c>
+      <c r="F43">
+        <v>-0.01276115287289912</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.02963004222608564</v>
+        <v>0.07811819120224854</v>
       </c>
       <c r="C44">
-        <v>0.136672644479294</v>
+        <v>0.02081158446757885</v>
       </c>
       <c r="D44">
-        <v>0.03426884980454265</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09859327139942645</v>
+      </c>
+      <c r="E44">
+        <v>0.06750109382326679</v>
+      </c>
+      <c r="F44">
+        <v>0.1512477229383453</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.005779502246481038</v>
+        <v>0.02430811585303353</v>
       </c>
       <c r="C46">
-        <v>0.008529288529907066</v>
+        <v>0.003730282802608251</v>
       </c>
       <c r="D46">
-        <v>-0.009857250375196972</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01272325156945409</v>
+      </c>
+      <c r="E46">
+        <v>0.02213429520815322</v>
+      </c>
+      <c r="F46">
+        <v>-0.003390873186743994</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.01169890996502014</v>
+        <v>0.05063790775569457</v>
       </c>
       <c r="C47">
-        <v>0.04243506633166853</v>
+        <v>0.003658050282974375</v>
       </c>
       <c r="D47">
-        <v>-0.01155748417876695</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01214017066582114</v>
+      </c>
+      <c r="E47">
+        <v>0.02262205659900613</v>
+      </c>
+      <c r="F47">
+        <v>-0.03323677822938488</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01118509187713871</v>
+        <v>0.04867202813277278</v>
       </c>
       <c r="C48">
-        <v>0.04787831153560734</v>
+        <v>0.002513304675641173</v>
       </c>
       <c r="D48">
-        <v>0.0138163030252487</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.0506726009289041</v>
+      </c>
+      <c r="E48">
+        <v>-0.006357636625772911</v>
+      </c>
+      <c r="F48">
+        <v>0.008690962889784876</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.03185014654228992</v>
+        <v>0.200709086955951</v>
       </c>
       <c r="C49">
-        <v>0.2012875207631778</v>
+        <v>0.01877532192739601</v>
       </c>
       <c r="D49">
-        <v>-0.07565369961057053</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.01135271562339574</v>
+      </c>
+      <c r="E49">
+        <v>0.03018517747099667</v>
+      </c>
+      <c r="F49">
+        <v>0.03937722824459563</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.01775353860608603</v>
+        <v>0.04971318591498936</v>
       </c>
       <c r="C50">
-        <v>0.0434293107012076</v>
+        <v>0.01130617510456676</v>
       </c>
       <c r="D50">
-        <v>0.00550858603161428</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.024190498915888</v>
+      </c>
+      <c r="E50">
+        <v>0.0297500469567523</v>
+      </c>
+      <c r="F50">
+        <v>0.007909825040994557</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0004699086726923214</v>
+        <v>0.001124773450618991</v>
       </c>
       <c r="C51">
-        <v>0.003327868208643601</v>
+        <v>0.000321249483748719</v>
       </c>
       <c r="D51">
-        <v>-0.005800472358918963</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.000901779190715314</v>
+      </c>
+      <c r="E51">
+        <v>0.0001979583943774714</v>
+      </c>
+      <c r="F51">
+        <v>0.003213114516943564</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.0266236620570207</v>
+        <v>0.1466923105358832</v>
       </c>
       <c r="C52">
-        <v>0.1491718143492096</v>
+        <v>0.01545867914558648</v>
       </c>
       <c r="D52">
-        <v>0.03388368737972804</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04484441776896064</v>
+      </c>
+      <c r="E52">
+        <v>0.02026345646992153</v>
+      </c>
+      <c r="F52">
+        <v>0.04294105765135002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.02449166365262903</v>
+        <v>0.1740498457371841</v>
       </c>
       <c r="C53">
-        <v>0.1606072318830463</v>
+        <v>0.01864016035699137</v>
       </c>
       <c r="D53">
-        <v>-0.02114877719010934</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.00423316811598155</v>
+      </c>
+      <c r="E53">
+        <v>0.03133664466375401</v>
+      </c>
+      <c r="F53">
+        <v>0.07577195960219001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01431952073235744</v>
+        <v>0.02146130940146318</v>
       </c>
       <c r="C54">
-        <v>0.04734148965296701</v>
+        <v>0.01246404683831771</v>
       </c>
       <c r="D54">
-        <v>-0.008117407237318649</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03272421691542676</v>
+      </c>
+      <c r="E54">
+        <v>0.01686646171541047</v>
+      </c>
+      <c r="F54">
+        <v>-0.004058465382704272</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.02228037503903507</v>
+        <v>0.1143750553098638</v>
       </c>
       <c r="C55">
-        <v>0.08892665333923923</v>
+        <v>0.01654361088309276</v>
       </c>
       <c r="D55">
-        <v>0.01512046664099586</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.008883710951897217</v>
+      </c>
+      <c r="E55">
+        <v>0.02808596079897308</v>
+      </c>
+      <c r="F55">
+        <v>0.04848307240208188</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.02791277338694694</v>
+        <v>0.1786640322551306</v>
       </c>
       <c r="C56">
-        <v>0.1629562336333952</v>
+        <v>0.01603020989333814</v>
       </c>
       <c r="D56">
-        <v>-0.01468028522897061</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.000568784343527804</v>
+      </c>
+      <c r="E56">
+        <v>0.03657367738102597</v>
+      </c>
+      <c r="F56">
+        <v>0.05451385745258869</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.009528548892259847</v>
+        <v>0.04611531768065204</v>
       </c>
       <c r="C58">
-        <v>0.04506113897215861</v>
+        <v>0.001093983506037592</v>
       </c>
       <c r="D58">
-        <v>0.007603035046024102</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.06704929470768936</v>
+      </c>
+      <c r="E58">
+        <v>0.02727346681576005</v>
+      </c>
+      <c r="F58">
+        <v>-0.03780670326515023</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.009362792869319111</v>
+        <v>0.1688197465061403</v>
       </c>
       <c r="C59">
-        <v>0.07339664994607502</v>
+        <v>0.01966266997742817</v>
       </c>
       <c r="D59">
-        <v>-0.2883235334602416</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2225046247230557</v>
+      </c>
+      <c r="E59">
+        <v>-0.04585234053598355</v>
+      </c>
+      <c r="F59">
+        <v>-0.03377726130457252</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.01911704719137404</v>
+        <v>0.2342026500927938</v>
       </c>
       <c r="C60">
-        <v>0.2838099710885151</v>
+        <v>-0.002515906406189405</v>
       </c>
       <c r="D60">
-        <v>-0.002839970295383296</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.03909869266344066</v>
+      </c>
+      <c r="E60">
+        <v>0.01047550608185502</v>
+      </c>
+      <c r="F60">
+        <v>-0.00286923680825532</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.02690864314391946</v>
+        <v>0.08342598260323261</v>
       </c>
       <c r="C61">
-        <v>0.1332779428450376</v>
+        <v>0.01270511321971674</v>
       </c>
       <c r="D61">
-        <v>0.04935670194860432</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1155466341796236</v>
+      </c>
+      <c r="E61">
+        <v>0.03933704695176796</v>
+      </c>
+      <c r="F61">
+        <v>0.01048340256759655</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.03185800624543417</v>
+        <v>0.170555954295755</v>
       </c>
       <c r="C62">
-        <v>0.1686125367612775</v>
+        <v>0.01951316494091465</v>
       </c>
       <c r="D62">
-        <v>-0.01233573187565083</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.00631818812396007</v>
+      </c>
+      <c r="E62">
+        <v>0.03549527229406253</v>
+      </c>
+      <c r="F62">
+        <v>0.03657577339136165</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01046922628546703</v>
+        <v>0.04395994047066925</v>
       </c>
       <c r="C63">
-        <v>0.05645978797705643</v>
+        <v>0.002237710343158205</v>
       </c>
       <c r="D63">
-        <v>0.01996125929300552</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.05865706658590977</v>
+      </c>
+      <c r="E63">
+        <v>0.02055133910567295</v>
+      </c>
+      <c r="F63">
+        <v>0.004203040765189068</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.0210541861650292</v>
+        <v>0.1107300169428808</v>
       </c>
       <c r="C64">
-        <v>0.1017187217216853</v>
+        <v>0.01166021723194807</v>
       </c>
       <c r="D64">
-        <v>0.0183366934575966</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04212369953889974</v>
+      </c>
+      <c r="E64">
+        <v>0.02327326593531781</v>
+      </c>
+      <c r="F64">
+        <v>0.02603449735242386</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.03667171457614422</v>
+        <v>0.1467429721202605</v>
       </c>
       <c r="C65">
-        <v>0.1097541451345931</v>
+        <v>0.03222152562150177</v>
       </c>
       <c r="D65">
-        <v>-0.01480630138004284</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.04203392063688559</v>
+      </c>
+      <c r="E65">
+        <v>0.003372289103429558</v>
+      </c>
+      <c r="F65">
+        <v>0.03889869169988273</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.03447337379603323</v>
+        <v>0.1278706789435435</v>
       </c>
       <c r="C66">
-        <v>0.2075821787571517</v>
+        <v>0.01489674866382277</v>
       </c>
       <c r="D66">
-        <v>0.07117964007069838</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1404008476063905</v>
+      </c>
+      <c r="E66">
+        <v>0.06739190233466108</v>
+      </c>
+      <c r="F66">
+        <v>0.03070617462055123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.01401556915794526</v>
+        <v>0.06297184566179757</v>
       </c>
       <c r="C67">
-        <v>0.06593282980039933</v>
+        <v>0.003301960273916756</v>
       </c>
       <c r="D67">
-        <v>-0.007940829026412091</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05417297346587648</v>
+      </c>
+      <c r="E67">
+        <v>0.01729629467284275</v>
+      </c>
+      <c r="F67">
+        <v>-0.03260572321736255</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.01263049391028118</v>
+        <v>0.1152981467630997</v>
       </c>
       <c r="C68">
-        <v>0.01825729158420893</v>
+        <v>0.02874092177810218</v>
       </c>
       <c r="D68">
-        <v>-0.2547802072001679</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2599572588789479</v>
+      </c>
+      <c r="E68">
+        <v>-0.08672461708650304</v>
+      </c>
+      <c r="F68">
+        <v>0.005178536693619288</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.005400981567790153</v>
+        <v>0.03954944503933291</v>
       </c>
       <c r="C69">
-        <v>0.03514629956769558</v>
+        <v>0.001237095682608278</v>
       </c>
       <c r="D69">
-        <v>-0.009806498776709013</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.00754485861773852</v>
+      </c>
+      <c r="E69">
+        <v>0.02341197920543388</v>
+      </c>
+      <c r="F69">
+        <v>-0.0007983964961110681</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.002483631491689771</v>
+        <v>0.06320695997436636</v>
       </c>
       <c r="C70">
-        <v>0.03478349597395691</v>
+        <v>-0.02817455374975877</v>
       </c>
       <c r="D70">
-        <v>-0.001700762589262497</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.02666226246054355</v>
+      </c>
+      <c r="E70">
+        <v>-0.04303414398813091</v>
+      </c>
+      <c r="F70">
+        <v>-0.1874320904172225</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.01705094623726814</v>
+        <v>0.1343908690990132</v>
       </c>
       <c r="C71">
-        <v>0.02076470453515789</v>
+        <v>0.03372243871988765</v>
       </c>
       <c r="D71">
-        <v>-0.2708998853358119</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2743500719682435</v>
+      </c>
+      <c r="E71">
+        <v>-0.09649085776738162</v>
+      </c>
+      <c r="F71">
+        <v>0.01167305239540942</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.0324175785690316</v>
+        <v>0.1409048245977267</v>
       </c>
       <c r="C72">
-        <v>0.1171511541866204</v>
+        <v>0.02601278564479297</v>
       </c>
       <c r="D72">
-        <v>-0.03692602598288301</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.0003725446956095339</v>
+      </c>
+      <c r="E72">
+        <v>0.0398637635742008</v>
+      </c>
+      <c r="F72">
+        <v>0.03614793361945041</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.03010224282078965</v>
+        <v>0.2010245378740001</v>
       </c>
       <c r="C73">
-        <v>0.2069676698414527</v>
+        <v>0.01309893600464729</v>
       </c>
       <c r="D73">
-        <v>-0.06457128257015463</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01420210242072137</v>
+      </c>
+      <c r="E73">
+        <v>0.06442761183610354</v>
+      </c>
+      <c r="F73">
+        <v>0.03896502847593269</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.01750196634688196</v>
+        <v>0.09483105595617161</v>
       </c>
       <c r="C74">
-        <v>0.1154303654728161</v>
+        <v>0.01311433276216836</v>
       </c>
       <c r="D74">
-        <v>-0.005194997146616834</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01773357246189861</v>
+      </c>
+      <c r="E74">
+        <v>0.04473495865528841</v>
+      </c>
+      <c r="F74">
+        <v>0.05727234166203059</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.03710351300923326</v>
+        <v>0.1289987501388863</v>
       </c>
       <c r="C75">
-        <v>0.1373702186723957</v>
+        <v>0.02764883772012517</v>
       </c>
       <c r="D75">
-        <v>-0.001630692353880521</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02991159077885141</v>
+      </c>
+      <c r="E75">
+        <v>0.05876517422032843</v>
+      </c>
+      <c r="F75">
+        <v>0.01960988037033557</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0003892344465595014</v>
+        <v>0.001217978109234925</v>
       </c>
       <c r="C76">
-        <v>0.004273693657421221</v>
+        <v>0.0003320255319696746</v>
       </c>
       <c r="D76">
-        <v>-0.006533222125357984</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.001002641221060833</v>
+      </c>
+      <c r="E76">
+        <v>0.00025811113488672</v>
+      </c>
+      <c r="F76">
+        <v>0.001487706686608751</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.02082601035214859</v>
+        <v>0.08142749182879699</v>
       </c>
       <c r="C77">
-        <v>0.1087460938344052</v>
+        <v>0.008456456153140324</v>
       </c>
       <c r="D77">
-        <v>0.09808318848175369</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.11726459940327</v>
+      </c>
+      <c r="E77">
+        <v>0.04031426725774851</v>
+      </c>
+      <c r="F77">
+        <v>0.02634418346892051</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.04709043091871753</v>
+        <v>0.1012092118159793</v>
       </c>
       <c r="C78">
-        <v>0.1239021661489266</v>
+        <v>0.03956282205853023</v>
       </c>
       <c r="D78">
-        <v>0.03377914707604666</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1158618457079394</v>
+      </c>
+      <c r="E78">
+        <v>0.07779408913718276</v>
+      </c>
+      <c r="F78">
+        <v>0.04521987446384729</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.03148581555993257</v>
+        <v>0.164752301686291</v>
       </c>
       <c r="C79">
-        <v>0.1469921479772965</v>
+        <v>0.02215937970848193</v>
       </c>
       <c r="D79">
-        <v>-0.0152257173271897</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01535153838147584</v>
+      </c>
+      <c r="E79">
+        <v>0.04701344205234154</v>
+      </c>
+      <c r="F79">
+        <v>0.01346586336039526</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.004234092826053768</v>
+        <v>0.08199822664314152</v>
       </c>
       <c r="C80">
-        <v>0.09532110061040619</v>
+        <v>-0.0006500829848704545</v>
       </c>
       <c r="D80">
-        <v>0.01462341819588098</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05783847159936294</v>
+      </c>
+      <c r="E80">
+        <v>0.03629627498061086</v>
+      </c>
+      <c r="F80">
+        <v>-0.02505940218302839</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.03860956348480832</v>
+        <v>0.1228894108600922</v>
       </c>
       <c r="C81">
-        <v>0.1507422748262156</v>
+        <v>0.03143392545246697</v>
       </c>
       <c r="D81">
-        <v>-0.00056479435286844</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01520607173678644</v>
+      </c>
+      <c r="E81">
+        <v>0.05883427737738788</v>
+      </c>
+      <c r="F81">
+        <v>0.01851928534857469</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.03277479884337632</v>
+        <v>0.1658772530405377</v>
       </c>
       <c r="C82">
-        <v>0.1665656504262589</v>
+        <v>0.02397785903452594</v>
       </c>
       <c r="D82">
-        <v>-0.01573496532737138</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.004552975171657064</v>
+      </c>
+      <c r="E82">
+        <v>0.02902839907555805</v>
+      </c>
+      <c r="F82">
+        <v>0.08130166235089036</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.01610723606079199</v>
+        <v>0.06165190774821357</v>
       </c>
       <c r="C83">
-        <v>0.0761497386269774</v>
+        <v>0.003323291232365294</v>
       </c>
       <c r="D83">
-        <v>-0.004401072806731446</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04950572151581451</v>
+      </c>
+      <c r="E83">
+        <v>0.005901316434315454</v>
+      </c>
+      <c r="F83">
+        <v>-0.03276449037449407</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.02465333625006613</v>
+        <v>0.05869638759522982</v>
       </c>
       <c r="C84">
-        <v>0.07695948085278745</v>
+        <v>0.01112466513737483</v>
       </c>
       <c r="D84">
-        <v>0.02939996798746801</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.06462376963263061</v>
+      </c>
+      <c r="E84">
+        <v>0.007166500838392453</v>
+      </c>
+      <c r="F84">
+        <v>0.004644158137364328</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.03373335313757656</v>
+        <v>0.1378651458891225</v>
       </c>
       <c r="C85">
-        <v>0.1221622855158448</v>
+        <v>0.02754143163679322</v>
       </c>
       <c r="D85">
-        <v>-0.009167982968148112</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01038773914631154</v>
+      </c>
+      <c r="E85">
+        <v>0.03942836449204595</v>
+      </c>
+      <c r="F85">
+        <v>0.04710138759713653</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.004885971747791553</v>
+        <v>0.09632169283445205</v>
       </c>
       <c r="C86">
-        <v>0.1059681273604414</v>
+        <v>-0.006462443685098332</v>
       </c>
       <c r="D86">
-        <v>-0.235443854387863</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.03992018203216957</v>
+      </c>
+      <c r="E86">
+        <v>0.2077393597502446</v>
+      </c>
+      <c r="F86">
+        <v>-0.909574332741243</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.03700159782058165</v>
+        <v>0.09702509732507686</v>
       </c>
       <c r="C87">
-        <v>0.1111775830180508</v>
+        <v>0.02066619003737485</v>
       </c>
       <c r="D87">
-        <v>0.06435339506044653</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09551172491130905</v>
+      </c>
+      <c r="E87">
+        <v>-0.05105334396226776</v>
+      </c>
+      <c r="F87">
+        <v>0.05201838858280713</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.01156951989967648</v>
+        <v>0.06101486104432975</v>
       </c>
       <c r="C88">
-        <v>0.05805432973062181</v>
+        <v>0.002514158142763972</v>
       </c>
       <c r="D88">
-        <v>0.02927419093991336</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04997300810478014</v>
+      </c>
+      <c r="E88">
+        <v>0.02503013666866961</v>
+      </c>
+      <c r="F88">
+        <v>0.01301761991143252</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.0006262617499887386</v>
+        <v>0.1316051361290643</v>
       </c>
       <c r="C89">
-        <v>0.03885535900384847</v>
+        <v>0.01147113172965883</v>
       </c>
       <c r="D89">
-        <v>-0.3420999000661579</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2524641326911323</v>
+      </c>
+      <c r="E89">
+        <v>-0.09131662326444229</v>
+      </c>
+      <c r="F89">
+        <v>-0.008593106075428935</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.01738767004212978</v>
+        <v>0.1468325453267182</v>
       </c>
       <c r="C90">
-        <v>0.02461604777133049</v>
+        <v>0.02937147452040361</v>
       </c>
       <c r="D90">
-        <v>-0.2824127496026508</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2666453836430342</v>
+      </c>
+      <c r="E90">
+        <v>-0.1108491370111197</v>
+      </c>
+      <c r="F90">
+        <v>-0.002628917346275706</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.01919360449430622</v>
+        <v>0.1196569193581528</v>
       </c>
       <c r="C91">
-        <v>0.09332468662293354</v>
+        <v>0.0183481212167104</v>
       </c>
       <c r="D91">
-        <v>-0.007686176574135122</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.0127044477212287</v>
+      </c>
+      <c r="E91">
+        <v>0.05689434634661785</v>
+      </c>
+      <c r="F91">
+        <v>-0.001393631576922415</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.0001470286140276832</v>
+        <v>0.1458217644777667</v>
       </c>
       <c r="C92">
-        <v>0.03691727050369294</v>
+        <v>0.0213892845212694</v>
       </c>
       <c r="D92">
-        <v>-0.3080531875369188</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2911514729868677</v>
+      </c>
+      <c r="E92">
+        <v>-0.1011816611177537</v>
+      </c>
+      <c r="F92">
+        <v>-0.01358486894853423</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.01184396221696399</v>
+        <v>0.1497844792303</v>
       </c>
       <c r="C93">
-        <v>0.02801110238459152</v>
+        <v>0.02556144246416591</v>
       </c>
       <c r="D93">
-        <v>-0.3132723164967481</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2679186160058721</v>
+      </c>
+      <c r="E93">
+        <v>-0.07819898144303805</v>
+      </c>
+      <c r="F93">
+        <v>0.003512428760668184</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.03579416213271722</v>
+        <v>0.1317281140094012</v>
       </c>
       <c r="C94">
-        <v>0.161277977738188</v>
+        <v>0.02459983195846555</v>
       </c>
       <c r="D94">
-        <v>-0.009363248018129608</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04288906166259263</v>
+      </c>
+      <c r="E94">
+        <v>0.05837621038242556</v>
+      </c>
+      <c r="F94">
+        <v>0.03733828450576352</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.02166999508267348</v>
+        <v>0.1253321164816174</v>
       </c>
       <c r="C95">
-        <v>0.1437749875030591</v>
+        <v>0.004587204140768498</v>
       </c>
       <c r="D95">
-        <v>0.04939669995281222</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09048350803260186</v>
+      </c>
+      <c r="E95">
+        <v>0.04622543992167836</v>
+      </c>
+      <c r="F95">
+        <v>-0.01124579123144241</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.9811363437776425</v>
+        <v>0.1049225367488783</v>
       </c>
       <c r="C96">
-        <v>0.1715380312693796</v>
+        <v>-0.9879636563639582</v>
       </c>
       <c r="D96">
-        <v>-0.008870349713701951</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.04074734702665352</v>
+      </c>
+      <c r="E96">
+        <v>0.05638173594177898</v>
+      </c>
+      <c r="F96">
+        <v>0.04269330544341565</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.0006663657095266281</v>
+        <v>0.1914428527301413</v>
       </c>
       <c r="C97">
-        <v>0.1745626069990922</v>
+        <v>-0.008573994141492208</v>
       </c>
       <c r="D97">
-        <v>-0.08201498124877174</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.01629060853854961</v>
+      </c>
+      <c r="E97">
+        <v>0.01534613642206434</v>
+      </c>
+      <c r="F97">
+        <v>-0.09290925050241797</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.02048872413786651</v>
+        <v>0.2061555230822587</v>
       </c>
       <c r="C98">
-        <v>0.1917334157419794</v>
+        <v>0.007812623568342114</v>
       </c>
       <c r="D98">
-        <v>-0.05791355947917252</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.007361376521277744</v>
+      </c>
+      <c r="E98">
+        <v>-0.08641283398474604</v>
+      </c>
+      <c r="F98">
+        <v>-0.09449821420504761</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.003112386099620469</v>
+        <v>0.0560977641172286</v>
       </c>
       <c r="C99">
-        <v>0.05770083011759304</v>
+        <v>-0.004352554833679355</v>
       </c>
       <c r="D99">
-        <v>0.006335009626374261</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.0390335229516624</v>
+      </c>
+      <c r="E99">
+        <v>0.02392878889815366</v>
+      </c>
+      <c r="F99">
+        <v>0.0005415715863093202</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.005831209412799245</v>
+        <v>0.127812928002455</v>
       </c>
       <c r="C100">
-        <v>0.143890940707791</v>
+        <v>-0.05273960005704328</v>
       </c>
       <c r="D100">
-        <v>0.3593016896182237</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.346756933377651</v>
+      </c>
+      <c r="E100">
+        <v>-0.8885810934362496</v>
+      </c>
+      <c r="F100">
+        <v>-0.133208999861663</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.01221059947195201</v>
+        <v>0.02720421558226515</v>
       </c>
       <c r="C101">
-        <v>0.0318628531301589</v>
+        <v>0.008244580613444064</v>
       </c>
       <c r="D101">
-        <v>-0.005083974843140012</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03265764732819744</v>
+      </c>
+      <c r="E101">
+        <v>0.01088235797612438</v>
+      </c>
+      <c r="F101">
+        <v>-0.01213591778864169</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
